--- a/cfg/Yolov3.xlsx
+++ b/cfg/Yolov3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="84" windowWidth="13380" windowHeight="2688"/>
+    <workbookView xWindow="90" yWindow="90" windowWidth="13380" windowHeight="2685"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="57">
   <si>
     <t>[net]</t>
   </si>
@@ -184,13 +184,16 @@
   </si>
   <si>
     <t>mask = 0,1,2</t>
+  </si>
+  <si>
+    <t>Anchor boxes: (x x y)  oder anders ausgedrückt (Höhe x Breite)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,7 +203,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -242,11 +245,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -255,31 +253,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>221672</xdr:colOff>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>1865</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>85013</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1" descr="https://cdn-images-1.medium.com/max/1043/1*d4Eg17IVJ0L41e7CTWLLSg.png"/>
+        <xdr:cNvPr id="1025" name="Grafik 1" descr="https://cdn-images-1.medium.com/max/1043/1*d4Eg17IVJ0L41e7CTWLLSg.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -287,22 +279,19 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3380508" y="318655"/>
-          <a:ext cx="8163791" cy="4573885"/>
+          <a:off x="3552825" y="333375"/>
+          <a:ext cx="7886700" cy="4514850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -311,9 +300,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -351,7 +340,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -385,7 +374,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -420,10 +408,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,148 +583,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:BE134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:BE137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="C96" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E138" sqref="E138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="15.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="58" max="58" width="20.44140625" customWidth="1"/>
-    <col min="59" max="59" width="15.21875" customWidth="1"/>
-    <col min="60" max="60" width="17.88671875" customWidth="1"/>
-    <col min="61" max="61" width="15.6640625" customWidth="1"/>
-    <col min="62" max="62" width="8.109375" customWidth="1"/>
-    <col min="63" max="63" width="10.109375" customWidth="1"/>
-    <col min="64" max="64" width="14.5546875" customWidth="1"/>
-    <col min="65" max="65" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="58" max="58" width="20.42578125" customWidth="1"/>
+    <col min="59" max="59" width="15.28515625" customWidth="1"/>
+    <col min="60" max="60" width="17.85546875" customWidth="1"/>
+    <col min="61" max="61" width="15.7109375" customWidth="1"/>
+    <col min="62" max="62" width="8.140625" customWidth="1"/>
+    <col min="63" max="63" width="10.140625" customWidth="1"/>
+    <col min="64" max="64" width="14.5703125" customWidth="1"/>
+    <col min="65" max="65" width="15.7109375" customWidth="1"/>
     <col min="66" max="66" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:57" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:57">
       <c r="BE1" s="1"/>
     </row>
-    <row r="2" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:57">
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:57">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:57">
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:57">
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:57">
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:57">
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:57">
       <c r="C8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:57">
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="3:57" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:57">
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:57">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:57">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:57">
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:57">
       <c r="C14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:57">
       <c r="C15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="3:57" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:57">
       <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="3:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:10">
       <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:10">
       <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:10">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:10">
       <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:10">
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10">
       <c r="C22" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="3:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:10">
       <c r="C23" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="3:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:10">
       <c r="C24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="3:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:10">
       <c r="C25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:10">
       <c r="C28" s="1">
         <v>1</v>
       </c>
@@ -763,7 +750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:10">
       <c r="C29" s="1">
         <v>2</v>
       </c>
@@ -789,7 +776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:10">
       <c r="C30" s="1">
         <v>3</v>
       </c>
@@ -815,7 +802,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:10">
       <c r="C31" s="1">
         <v>4</v>
       </c>
@@ -841,7 +828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:10">
       <c r="C32" s="1">
         <v>5</v>
       </c>
@@ -855,7 +842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:10">
       <c r="C33" s="1">
         <v>6</v>
       </c>
@@ -881,7 +868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:10">
       <c r="C34" s="1">
         <v>7</v>
       </c>
@@ -907,7 +894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:10">
       <c r="C35" s="1">
         <v>8</v>
       </c>
@@ -933,7 +920,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:10">
       <c r="C36" s="1">
         <v>9</v>
       </c>
@@ -947,7 +934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:10">
       <c r="C37" s="1">
         <v>10</v>
       </c>
@@ -973,7 +960,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:10">
       <c r="C38" s="1">
         <v>11</v>
       </c>
@@ -999,7 +986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:10">
       <c r="C39" s="1">
         <v>12</v>
       </c>
@@ -1013,7 +1000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:10">
       <c r="C40" s="1">
         <v>13</v>
       </c>
@@ -1039,7 +1026,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:10">
       <c r="C41" s="1">
         <v>14</v>
       </c>
@@ -1065,7 +1052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:10">
       <c r="C42" s="1">
         <v>15</v>
       </c>
@@ -1091,7 +1078,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:10">
       <c r="C43" s="1">
         <v>16</v>
       </c>
@@ -1105,7 +1092,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:10">
       <c r="C44" s="1">
         <v>17</v>
       </c>
@@ -1131,7 +1118,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:10">
       <c r="C45" s="1">
         <v>18</v>
       </c>
@@ -1157,7 +1144,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:10">
       <c r="C46" s="1">
         <v>19</v>
       </c>
@@ -1171,7 +1158,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:10">
       <c r="C47" s="1">
         <v>20</v>
       </c>
@@ -1197,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:10">
       <c r="C48" s="1">
         <v>21</v>
       </c>
@@ -1223,7 +1210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:10">
       <c r="C49" s="1">
         <v>22</v>
       </c>
@@ -1237,7 +1224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:10">
       <c r="C50" s="1">
         <v>23</v>
       </c>
@@ -1263,7 +1250,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:10">
       <c r="C51" s="1">
         <v>24</v>
       </c>
@@ -1289,7 +1276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:10">
       <c r="C52" s="1">
         <v>25</v>
       </c>
@@ -1303,7 +1290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:10">
       <c r="C53" s="1">
         <v>26</v>
       </c>
@@ -1329,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:10">
       <c r="C54" s="1">
         <v>27</v>
       </c>
@@ -1355,7 +1342,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:10">
       <c r="C55" s="1">
         <v>28</v>
       </c>
@@ -1369,7 +1356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:10">
       <c r="C56" s="1">
         <v>29</v>
       </c>
@@ -1395,7 +1382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:10">
       <c r="C57" s="1">
         <v>30</v>
       </c>
@@ -1421,7 +1408,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:10">
       <c r="C58" s="1">
         <v>31</v>
       </c>
@@ -1435,7 +1422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:10">
       <c r="C59" s="1">
         <v>32</v>
       </c>
@@ -1461,7 +1448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:10">
       <c r="C60" s="1">
         <v>33</v>
       </c>
@@ -1487,7 +1474,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:10">
       <c r="C61" s="1">
         <v>34</v>
       </c>
@@ -1501,7 +1488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:10">
       <c r="C62" s="1">
         <v>35</v>
       </c>
@@ -1527,7 +1514,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:10">
       <c r="C63" s="1">
         <v>36</v>
       </c>
@@ -1553,7 +1540,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:10">
       <c r="C64" s="1">
         <v>37</v>
       </c>
@@ -1567,7 +1554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:10">
       <c r="C65" s="1">
         <v>38</v>
       </c>
@@ -1593,7 +1580,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:10">
       <c r="C66" s="1">
         <v>39</v>
       </c>
@@ -1619,7 +1606,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:10">
       <c r="C67" s="1">
         <v>40</v>
       </c>
@@ -1645,7 +1632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:10">
       <c r="C68" s="1">
         <v>41</v>
       </c>
@@ -1659,7 +1646,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:10">
       <c r="C69" s="1">
         <v>42</v>
       </c>
@@ -1685,7 +1672,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="70" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:10">
       <c r="C70" s="1">
         <v>43</v>
       </c>
@@ -1711,7 +1698,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:10">
       <c r="C71" s="1">
         <v>44</v>
       </c>
@@ -1725,7 +1712,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:10">
       <c r="C72" s="1">
         <v>45</v>
       </c>
@@ -1751,7 +1738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:10">
       <c r="C73" s="1">
         <v>46</v>
       </c>
@@ -1777,7 +1764,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="74" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:10">
       <c r="C74" s="1">
         <v>47</v>
       </c>
@@ -1791,7 +1778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:10">
       <c r="C75" s="1">
         <v>48</v>
       </c>
@@ -1817,7 +1804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:10">
       <c r="C76" s="1">
         <v>49</v>
       </c>
@@ -1843,7 +1830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="77" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:10">
       <c r="C77" s="1">
         <v>50</v>
       </c>
@@ -1857,7 +1844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:10">
       <c r="C78" s="1">
         <v>51</v>
       </c>
@@ -1883,7 +1870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:10">
       <c r="C79" s="1">
         <v>52</v>
       </c>
@@ -1909,7 +1896,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="80" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:10">
       <c r="C80" s="1">
         <v>53</v>
       </c>
@@ -1923,7 +1910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:10">
       <c r="C81" s="1">
         <v>54</v>
       </c>
@@ -1949,7 +1936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="82" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:10">
       <c r="C82" s="1">
         <v>55</v>
       </c>
@@ -1975,7 +1962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:10">
       <c r="C83" s="1">
         <v>56</v>
       </c>
@@ -1989,7 +1976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:10">
       <c r="C84" s="1">
         <v>57</v>
       </c>
@@ -2015,7 +2002,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="85" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:10">
       <c r="C85" s="1">
         <v>58</v>
       </c>
@@ -2041,7 +2028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:10">
       <c r="C86" s="1">
         <v>59</v>
       </c>
@@ -2055,7 +2042,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:10">
       <c r="C87" s="1">
         <v>60</v>
       </c>
@@ -2081,7 +2068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:10">
       <c r="C88" s="1">
         <v>61</v>
       </c>
@@ -2107,7 +2094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:10">
       <c r="C89" s="1">
         <v>62</v>
       </c>
@@ -2121,7 +2108,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:10">
       <c r="C90" s="1">
         <v>63</v>
       </c>
@@ -2147,7 +2134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:10">
       <c r="C91" s="1">
         <v>64</v>
       </c>
@@ -2173,7 +2160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:10">
       <c r="C92" s="1">
         <v>65</v>
       </c>
@@ -2199,7 +2186,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:10">
       <c r="C93" s="1">
         <v>66</v>
       </c>
@@ -2213,7 +2200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:10">
       <c r="C94" s="1">
         <v>67</v>
       </c>
@@ -2239,7 +2226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:10">
       <c r="C95" s="1">
         <v>68</v>
       </c>
@@ -2265,7 +2252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="96" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:10">
       <c r="C96" s="1">
         <v>69</v>
       </c>
@@ -2279,7 +2266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12">
       <c r="C97" s="1">
         <v>70</v>
       </c>
@@ -2305,7 +2292,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12">
       <c r="C98" s="1">
         <v>71</v>
       </c>
@@ -2331,7 +2318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12">
       <c r="C99" s="1">
         <v>72</v>
       </c>
@@ -2345,7 +2332,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12">
       <c r="C100" s="1">
         <v>73</v>
       </c>
@@ -2371,7 +2358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12">
       <c r="C101" s="1">
         <v>74</v>
       </c>
@@ -2397,7 +2384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12">
       <c r="C102" s="1">
         <v>75</v>
       </c>
@@ -2411,7 +2398,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="3:12">
       <c r="C103" s="1">
         <v>76</v>
       </c>
@@ -2437,7 +2424,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="3:12">
       <c r="C104" s="1">
         <v>77</v>
       </c>
@@ -2463,7 +2450,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="3:12">
       <c r="C105" s="1">
         <v>78</v>
       </c>
@@ -2489,7 +2476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="3:12">
       <c r="C106" s="1">
         <v>79</v>
       </c>
@@ -2515,7 +2502,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="3:12">
       <c r="C107" s="1">
         <v>80</v>
       </c>
@@ -2541,7 +2528,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="3:12">
       <c r="C108" s="1">
         <v>81</v>
       </c>
@@ -2567,7 +2554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="3:12">
       <c r="C109" s="1">
         <v>82</v>
       </c>
@@ -2590,7 +2577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="3:12">
       <c r="C110" s="1">
         <v>83</v>
       </c>
@@ -2622,7 +2609,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="3:12">
       <c r="C111" s="1">
         <v>84</v>
       </c>
@@ -2633,7 +2620,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="3:12">
       <c r="C112" s="1">
         <v>85</v>
       </c>
@@ -2659,7 +2646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="3:12">
       <c r="C113" s="1">
         <v>86</v>
       </c>
@@ -2670,7 +2657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="3:12">
       <c r="C114" s="1">
         <v>87</v>
       </c>
@@ -2681,7 +2668,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="3:12">
       <c r="C115" s="1">
         <v>88</v>
       </c>
@@ -2707,7 +2694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="3:12">
       <c r="C116" s="1">
         <v>89</v>
       </c>
@@ -2733,7 +2720,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="3:12">
       <c r="C117" s="1">
         <v>90</v>
       </c>
@@ -2759,7 +2746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="3:12">
       <c r="C118" s="1">
         <v>91</v>
       </c>
@@ -2785,7 +2772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="119" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:12">
       <c r="C119" s="1">
         <v>92</v>
       </c>
@@ -2811,7 +2798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="120" spans="3:12">
       <c r="C120" s="1">
         <v>93</v>
       </c>
@@ -2837,7 +2824,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="121" spans="3:12">
       <c r="C121" s="1">
         <v>94</v>
       </c>
@@ -2860,7 +2847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="3:12">
       <c r="C122" s="1">
         <v>95</v>
       </c>
@@ -2892,7 +2879,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="3:12">
       <c r="C123" s="1">
         <v>96</v>
       </c>
@@ -2903,7 +2890,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="124" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="3:12">
       <c r="C124" s="1">
         <v>97</v>
       </c>
@@ -2929,7 +2916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="3:12">
       <c r="C125" s="1">
         <v>98</v>
       </c>
@@ -2940,7 +2927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="3:12">
       <c r="C126" s="1">
         <v>99</v>
       </c>
@@ -2951,7 +2938,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="3:12">
       <c r="C127" s="1">
         <v>100</v>
       </c>
@@ -2977,7 +2964,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:12">
       <c r="C128" s="1">
         <v>101</v>
       </c>
@@ -3003,7 +2990,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:12">
       <c r="C129" s="1">
         <v>102</v>
       </c>
@@ -3029,7 +3016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:12">
       <c r="C130" s="1">
         <v>103</v>
       </c>
@@ -3055,7 +3042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="131" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:12">
       <c r="C131" s="1">
         <v>104</v>
       </c>
@@ -3081,7 +3068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:12">
       <c r="C132" s="1">
         <v>105</v>
       </c>
@@ -3107,7 +3094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="133" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:12">
       <c r="C133" s="1">
         <v>106</v>
       </c>
@@ -3130,7 +3117,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:12">
       <c r="C134" s="1">
         <v>107</v>
       </c>
@@ -3162,7 +3149,13 @@
         <v>48</v>
       </c>
     </row>
+    <row r="137" spans="3:12">
+      <c r="C137" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3170,25 +3163,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>